--- a/SP_Sklad/Rep/ReestrDocs.xlsx
+++ b/SP_Sklad/Rep/ReestrDocs.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DocList">Лист1!$A$7:$G$26</definedName>
+    <definedName name="DocList">Лист1!$A$7:$G$8</definedName>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
@@ -38,72 +38,6 @@
   </si>
   <si>
     <t>Сума</t>
-  </si>
-  <si>
-    <t>Tect2</t>
-  </si>
-  <si>
-    <t>Прибуткова накладна №Пн-101</t>
-  </si>
-  <si>
-    <t>Прибуткова накладна №wwwwwww</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СПД Мордвінова В.В.м. Київ Волинська  "Ернест"</t>
-  </si>
-  <si>
-    <t>Прибуткова накладна №Пн-103</t>
-  </si>
-  <si>
-    <t>ФОП Губрієнко( Юра) м.Київ Марка Вовчка(Подольська база)</t>
-  </si>
-  <si>
-    <t>Прибуткова накладна №Пн-104</t>
-  </si>
-  <si>
-    <t>ФОП Асеева</t>
-  </si>
-  <si>
-    <t>Видаткова накладна №27</t>
-  </si>
-  <si>
-    <t>Видаткова накладна №29</t>
-  </si>
-  <si>
-    <t>Повернення від клієнта №13</t>
-  </si>
-  <si>
-    <t>ФОП Дорогін А.А.</t>
-  </si>
-  <si>
-    <t>Видаткова накладна №30</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Обвалка сировини №ОБ-25-34</t>
-  </si>
-  <si>
-    <t>Введення залишків товарів №18</t>
-  </si>
-  <si>
-    <t>Акти iнвентаризацiї №4</t>
-  </si>
-  <si>
-    <t>Введення залишків товарів №23</t>
-  </si>
-  <si>
-    <t>Акти списання товару №10</t>
-  </si>
-  <si>
-    <t>ФОП Лялецька №1</t>
-  </si>
-  <si>
-    <t>Видатковий касовий ордер №58</t>
-  </si>
-  <si>
-    <t>Прибутковий касовий ордер №60</t>
   </si>
   <si>
     <t>Фiнансовi операцiї №68</t>
@@ -849,8 +783,8 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>CONCATENATE("з "&amp;"01.07.2016"," по "&amp;"30.09.2016")</f>
-        <v>з 01.07.2016 по 30.09.2016</v>
+        <f>CONCATENATE("з "&amp;"01.09.2016"," по "&amp;"30.09.2016")</f>
+        <v>з 01.09.2016 по 30.09.2016</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -884,327 +818,65 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="B7" s="16">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="C7" s="17" t="s">
+        <v>42614.59872091435</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
         <v>6</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>7</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="B8" s="16">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21">
-        <v>82</v>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="B9" s="16">
-        <v>42552.559626932867</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21">
-        <v>82</v>
-      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="B10" s="16">
-        <v>42552.590989386576</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21">
-        <v>86</v>
-      </c>
+    <row r="10" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="B11" s="16">
-        <v>42552.592038113427</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="B12" s="16">
-        <v>42552.9921412037</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="B13" s="16">
-        <v>42553.993414351848</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="16">
-        <v>42556.038348726848</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21">
-        <v>31.800000000000001</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="16">
-        <v>42556.042982326384</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21">
-        <v>3.1800000000000002</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="16">
-        <v>42560.854987997685</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21">
-        <v>41.200000000000003</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="B17" s="16">
-        <v>42560.910291817127</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="16">
-        <v>42576.490611458328</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="16">
-        <v>42576.491692476848</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21">
-        <v>18300</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="16">
-        <v>42608.441704166667</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21">
-        <v>15.449999999999999</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="B21" s="16">
-        <v>42611.586016400463</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="16">
-        <v>42611.623686226849</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21">
-        <v>2.3999999999999999</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="B23" s="16">
-        <v>42611.698744872687</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="B24" s="16">
-        <v>42612.349605868054</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="B25" s="16">
-        <v>42614.59872091435</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-    </row>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="17" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
+    <row r="20" ht="12.75" customHeight="1"/>
+    <row r="21" ht="12.75" customHeight="1"/>
+    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="23" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
     <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-    </row>
+    <row r="29" ht="12.75" customHeight="1"/>
     <row r="30" ht="12.75" customHeight="1"/>
     <row r="31" ht="12.75" customHeight="1"/>
     <row r="32" ht="12.75" customHeight="1"/>
@@ -1271,28 +943,10 @@
     <row r="93" ht="12.75" customHeight="1"/>
     <row r="94" ht="12.75" customHeight="1"/>
     <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B29:F29"/>
+  <mergeCells count="9">
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:F6"/>
@@ -1300,24 +954,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>

--- a/SP_Sklad/Rep/ReestrDocs.xlsx
+++ b/SP_Sklad/Rep/ReestrDocs.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DocList">Лист1!$A$7:$G$8</definedName>
+    <definedName name="DocList">Лист1!$A$7:$G$13</definedName>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
@@ -41,6 +41,27 @@
   </si>
   <si>
     <t>Фiнансовi операцiї №68</t>
+  </si>
+  <si>
+    <t>Додаткові витрати №69</t>
+  </si>
+  <si>
+    <t>ФОП Губрієнко( Юра) м.Київ Марка Вовчка(Подольська база)</t>
+  </si>
+  <si>
+    <t>Замовлення вiд клiєнтiв №56</t>
+  </si>
+  <si>
+    <t>Дорогин А.</t>
+  </si>
+  <si>
+    <t>Виготовлення продукції №ВР-7-17</t>
+  </si>
+  <si>
+    <t>Видаткова накладна №57</t>
+  </si>
+  <si>
+    <t>Введення залишків товарів №25</t>
   </si>
   <si>
     <t>Кількість документів:</t>
@@ -831,39 +852,110 @@
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24" t="s">
+      <c r="B8" s="16">
+        <v>42621.399335879629</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25">
-        <v>1</v>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21">
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1"/>
+      <c r="B9" s="16">
+        <v>42622.961277662034</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="B10" s="16">
+        <v>42623.973981365736</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21">
+        <v>110</v>
+      </c>
+    </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
+      <c r="B11" s="16">
+        <v>42624.50049471065</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="B12" s="16">
+        <v>42624.543342708334</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+    </row>
     <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+    </row>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -943,10 +1035,15 @@
     <row r="93" ht="12.75" customHeight="1"/>
     <row r="94" ht="12.75" customHeight="1"/>
     <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B11:F11"/>
+  <mergeCells count="14">
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:F6"/>
@@ -954,6 +1051,11 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
